--- a/tests/data/test_database.xlsx
+++ b/tests/data/test_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lukas/Documents/Programming/Git/STVadmin_processing/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BA3A2A-0A64-724C-BB0B-EF440B734368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E89F34E-3B9C-1547-A17A-CBE43EAF15DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>MITGLIEDERNR</t>
   </si>
@@ -82,9 +82,6 @@
     <t>ort1</t>
   </si>
   <si>
-    <t>kat1</t>
-  </si>
-  <si>
     <t>email1</t>
   </si>
   <si>
@@ -112,10 +109,25 @@
     <t>ort2</t>
   </si>
   <si>
-    <t>kat2</t>
+    <t>email3</t>
   </si>
   <si>
-    <t>email3</t>
+    <t>789</t>
+  </si>
+  <si>
+    <t>vorname3</t>
+  </si>
+  <si>
+    <t>nachname3</t>
+  </si>
+  <si>
+    <t>strasse3</t>
+  </si>
+  <si>
+    <t>Aktive Turner</t>
+  </si>
+  <si>
+    <t>Kitu</t>
   </si>
 </sst>
 </file>
@@ -482,12 +494,12 @@
   <dimension ref="A1:L651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E643" sqref="E643"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,9 +537,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -551,69 +563,89 @@
         <v>36161</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="H3" s="3">
         <v>36558</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -627,7 +659,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -641,7 +673,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -655,7 +687,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -669,7 +701,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -683,7 +715,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -697,7 +729,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -711,7 +743,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -725,7 +757,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -739,7 +771,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -753,7 +785,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -767,7 +799,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -781,7 +813,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -795,7 +827,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -809,7 +841,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -823,7 +855,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -837,7 +869,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -851,7 +883,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -865,7 +897,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -879,7 +911,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -893,7 +925,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -907,7 +939,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -921,7 +953,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -935,7 +967,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -949,7 +981,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -963,7 +995,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -977,7 +1009,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -991,7 +1023,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1005,7 +1037,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1019,7 +1051,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1033,7 +1065,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1047,7 +1079,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1061,7 +1093,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1075,7 +1107,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1089,7 +1121,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1103,7 +1135,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1117,7 +1149,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1131,7 +1163,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1145,7 +1177,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1159,7 +1191,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1173,7 +1205,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1187,7 +1219,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1201,7 +1233,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1215,7 +1247,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1229,7 +1261,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1243,7 +1275,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1257,7 +1289,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1271,7 +1303,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1285,7 +1317,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1299,7 +1331,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1313,7 +1345,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1327,7 +1359,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1341,7 +1373,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1355,7 +1387,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1369,7 +1401,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1383,7 +1415,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1397,7 +1429,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1411,7 +1443,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1425,7 +1457,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1439,7 +1471,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1453,7 +1485,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1467,7 +1499,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1481,7 +1513,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1495,7 +1527,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1509,7 +1541,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1523,7 +1555,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1537,7 +1569,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1551,7 +1583,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1565,7 +1597,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1579,7 +1611,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1593,7 +1625,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1607,7 +1639,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1621,7 +1653,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1635,7 +1667,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1649,7 +1681,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1663,7 +1695,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1677,7 +1709,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1691,7 +1723,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1705,7 +1737,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1719,7 +1751,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1733,7 +1765,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1747,7 +1779,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1761,7 +1793,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1775,7 +1807,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1789,7 +1821,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1803,7 +1835,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1817,7 +1849,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1831,7 +1863,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1845,7 +1877,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1859,7 +1891,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1873,7 +1905,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1887,7 +1919,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1901,7 +1933,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1915,7 +1947,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1929,7 +1961,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1943,7 +1975,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1957,7 +1989,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1971,7 +2003,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1985,7 +2017,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1999,7 +2031,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2013,7 +2045,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2027,7 +2059,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2041,7 +2073,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2055,7 +2087,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2069,7 +2101,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2083,7 +2115,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2097,7 +2129,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2111,7 +2143,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2125,7 +2157,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2139,7 +2171,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2153,7 +2185,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2167,7 +2199,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2181,7 +2213,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2195,7 +2227,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2209,7 +2241,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2223,7 +2255,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2237,7 +2269,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2251,7 +2283,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2265,7 +2297,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2279,7 +2311,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2293,7 +2325,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2307,7 +2339,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2321,7 +2353,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2335,7 +2367,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2349,7 +2381,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2363,7 +2395,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2377,7 +2409,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2391,7 +2423,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2405,7 +2437,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2419,7 +2451,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2433,7 +2465,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2447,7 +2479,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2461,7 +2493,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2475,7 +2507,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2489,7 +2521,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2503,7 +2535,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2517,7 +2549,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2531,7 +2563,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2545,7 +2577,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2559,7 +2591,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2573,7 +2605,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2587,7 +2619,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2601,7 +2633,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2615,7 +2647,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2629,7 +2661,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2643,7 +2675,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2657,7 +2689,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2671,7 +2703,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2685,7 +2717,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
     </row>
-    <row r="153" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2699,7 +2731,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2713,7 +2745,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2727,7 +2759,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2741,7 +2773,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2755,7 +2787,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2769,7 +2801,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2783,7 +2815,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
     </row>
-    <row r="160" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2797,7 +2829,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2811,7 +2843,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2825,7 +2857,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
     </row>
-    <row r="163" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2839,7 +2871,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
     </row>
-    <row r="164" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2853,7 +2885,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
     </row>
-    <row r="165" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2867,7 +2899,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
     </row>
-    <row r="166" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2881,7 +2913,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2895,7 +2927,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2909,7 +2941,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
     </row>
-    <row r="169" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2923,7 +2955,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2937,7 +2969,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2951,7 +2983,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2965,7 +2997,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
     </row>
-    <row r="173" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2979,7 +3011,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2993,7 +3025,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
     </row>
-    <row r="175" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3007,7 +3039,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3021,7 +3053,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -3035,7 +3067,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -3049,7 +3081,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -3063,7 +3095,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3077,7 +3109,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3091,7 +3123,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3105,7 +3137,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3119,7 +3151,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3133,7 +3165,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3147,7 +3179,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -3161,7 +3193,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3175,7 +3207,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3189,7 +3221,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -3203,7 +3235,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3217,7 +3249,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3231,7 +3263,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3245,7 +3277,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3259,7 +3291,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3273,7 +3305,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3287,7 +3319,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3301,7 +3333,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3315,7 +3347,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3329,7 +3361,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3343,7 +3375,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3357,7 +3389,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3371,7 +3403,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3385,7 +3417,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3399,7 +3431,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
     </row>
-    <row r="204" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3413,7 +3445,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
     </row>
-    <row r="205" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3427,7 +3459,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
     </row>
-    <row r="206" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3441,7 +3473,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
     </row>
-    <row r="207" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3455,7 +3487,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
     </row>
-    <row r="208" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3469,7 +3501,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
     </row>
-    <row r="209" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3483,7 +3515,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
     </row>
-    <row r="210" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3497,7 +3529,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
     </row>
-    <row r="211" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3511,7 +3543,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
     </row>
-    <row r="212" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3525,7 +3557,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3539,7 +3571,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
     </row>
-    <row r="214" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3553,7 +3585,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
     </row>
-    <row r="215" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3567,7 +3599,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
     </row>
-    <row r="216" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3581,7 +3613,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
     </row>
-    <row r="217" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3595,7 +3627,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
     </row>
-    <row r="218" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3609,7 +3641,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
     </row>
-    <row r="219" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3623,7 +3655,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
     </row>
-    <row r="220" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3637,7 +3669,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
     </row>
-    <row r="221" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3651,7 +3683,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
     </row>
-    <row r="222" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -3665,7 +3697,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
     </row>
-    <row r="223" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3679,7 +3711,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
     </row>
-    <row r="224" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -3693,7 +3725,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
     </row>
-    <row r="225" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -3707,7 +3739,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -3721,7 +3753,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
     </row>
-    <row r="227" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -3735,7 +3767,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
     </row>
-    <row r="228" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -3749,7 +3781,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
     </row>
-    <row r="229" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -3763,7 +3795,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -3777,7 +3809,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -3791,7 +3823,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -3805,7 +3837,7 @@
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
     </row>
-    <row r="233" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -3819,7 +3851,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
     </row>
-    <row r="234" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -3833,7 +3865,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
     </row>
-    <row r="235" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -3847,7 +3879,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
     </row>
-    <row r="236" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -3861,7 +3893,7 @@
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
     </row>
-    <row r="237" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -3875,7 +3907,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
     </row>
-    <row r="238" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -3889,7 +3921,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
     </row>
-    <row r="239" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -3903,7 +3935,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
     </row>
-    <row r="240" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -3917,7 +3949,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
     </row>
-    <row r="241" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -3931,7 +3963,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
     </row>
-    <row r="242" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -3945,7 +3977,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
     </row>
-    <row r="243" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -3959,7 +3991,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
     </row>
-    <row r="244" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -3973,7 +4005,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
     </row>
-    <row r="245" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -3987,7 +4019,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
     </row>
-    <row r="246" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -4001,7 +4033,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
     </row>
-    <row r="247" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -4015,7 +4047,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
     </row>
-    <row r="248" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -4029,7 +4061,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
     </row>
-    <row r="249" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -4043,7 +4075,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
     </row>
-    <row r="250" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -4057,7 +4089,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
     </row>
-    <row r="251" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -4071,7 +4103,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
     </row>
-    <row r="252" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -4085,7 +4117,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
     </row>
-    <row r="253" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -4099,7 +4131,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
     </row>
-    <row r="254" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -4113,7 +4145,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
     </row>
-    <row r="255" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -4127,7 +4159,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
     </row>
-    <row r="256" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -4141,7 +4173,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
     </row>
-    <row r="257" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -4155,7 +4187,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
     </row>
-    <row r="258" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -4169,7 +4201,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
     </row>
-    <row r="259" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -4183,7 +4215,7 @@
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
     </row>
-    <row r="260" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -4197,7 +4229,7 @@
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
     </row>
-    <row r="261" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -4211,7 +4243,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
     </row>
-    <row r="262" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -4225,7 +4257,7 @@
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
     </row>
-    <row r="263" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -4239,7 +4271,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
     </row>
-    <row r="264" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -4253,7 +4285,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
     </row>
-    <row r="265" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -4267,7 +4299,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
     </row>
-    <row r="266" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -4281,7 +4313,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
     </row>
-    <row r="267" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -4295,7 +4327,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
     </row>
-    <row r="268" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -4309,7 +4341,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
     </row>
-    <row r="269" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -4323,7 +4355,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
     </row>
-    <row r="270" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -4337,7 +4369,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
     </row>
-    <row r="271" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -4351,7 +4383,7 @@
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
     </row>
-    <row r="272" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -4365,7 +4397,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
     </row>
-    <row r="273" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -4379,7 +4411,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
     </row>
-    <row r="274" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -4393,7 +4425,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
     </row>
-    <row r="275" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -4407,7 +4439,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
     </row>
-    <row r="276" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -4421,7 +4453,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
     </row>
-    <row r="277" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -4435,7 +4467,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
     </row>
-    <row r="278" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -4449,7 +4481,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
     </row>
-    <row r="279" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -4463,7 +4495,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
     </row>
-    <row r="280" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -4477,7 +4509,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
     </row>
-    <row r="281" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -4491,7 +4523,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
     </row>
-    <row r="282" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -4505,7 +4537,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
     </row>
-    <row r="283" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -4519,7 +4551,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
     </row>
-    <row r="284" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -4533,7 +4565,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
     </row>
-    <row r="285" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -4547,7 +4579,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
     </row>
-    <row r="286" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -4561,7 +4593,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
     </row>
-    <row r="287" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -4575,7 +4607,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
     </row>
-    <row r="288" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -4589,7 +4621,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
     </row>
-    <row r="289" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -4603,7 +4635,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
     </row>
-    <row r="290" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -4617,7 +4649,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
     </row>
-    <row r="291" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -4631,7 +4663,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
     </row>
-    <row r="292" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -4645,7 +4677,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
     </row>
-    <row r="293" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -4659,7 +4691,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
     </row>
-    <row r="294" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -4673,7 +4705,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
     </row>
-    <row r="295" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -4687,7 +4719,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
     </row>
-    <row r="296" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -4701,7 +4733,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
     </row>
-    <row r="297" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -4715,7 +4747,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
     </row>
-    <row r="298" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -4729,7 +4761,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
     </row>
-    <row r="299" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -4743,7 +4775,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
     </row>
-    <row r="300" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -4757,7 +4789,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
     </row>
-    <row r="301" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -4771,7 +4803,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
     </row>
-    <row r="302" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -4785,7 +4817,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
     </row>
-    <row r="303" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -4799,7 +4831,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
     </row>
-    <row r="304" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -4813,7 +4845,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
     </row>
-    <row r="305" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -4827,7 +4859,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
     </row>
-    <row r="306" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -4841,7 +4873,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
     </row>
-    <row r="307" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -4855,7 +4887,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
     </row>
-    <row r="308" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -4869,7 +4901,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
     </row>
-    <row r="309" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -4883,7 +4915,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
     </row>
-    <row r="310" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -4897,7 +4929,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
     </row>
-    <row r="311" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -4911,7 +4943,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
     </row>
-    <row r="312" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -4925,7 +4957,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="2"/>
     </row>
-    <row r="313" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -4939,7 +4971,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="2"/>
     </row>
-    <row r="314" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -4953,7 +4985,7 @@
       <c r="K314" s="2"/>
       <c r="L314" s="2"/>
     </row>
-    <row r="315" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -4967,7 +4999,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="2"/>
     </row>
-    <row r="316" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -4981,7 +5013,7 @@
       <c r="K316" s="2"/>
       <c r="L316" s="2"/>
     </row>
-    <row r="317" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -4995,7 +5027,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="2"/>
     </row>
-    <row r="318" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -5009,7 +5041,7 @@
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
     </row>
-    <row r="319" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -5023,7 +5055,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
     </row>
-    <row r="320" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -5037,7 +5069,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="2"/>
     </row>
-    <row r="321" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -5051,7 +5083,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="2"/>
     </row>
-    <row r="322" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -5065,7 +5097,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="2"/>
     </row>
-    <row r="323" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -5079,7 +5111,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="2"/>
     </row>
-    <row r="324" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -5093,7 +5125,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="2"/>
     </row>
-    <row r="325" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -5107,7 +5139,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="2"/>
     </row>
-    <row r="326" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -5121,7 +5153,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="2"/>
     </row>
-    <row r="327" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -5135,7 +5167,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="2"/>
     </row>
-    <row r="328" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -5149,7 +5181,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="2"/>
     </row>
-    <row r="329" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -5163,7 +5195,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="2"/>
     </row>
-    <row r="330" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -5177,7 +5209,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="2"/>
     </row>
-    <row r="331" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -5191,7 +5223,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="2"/>
     </row>
-    <row r="332" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -5205,7 +5237,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="2"/>
     </row>
-    <row r="333" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -5219,7 +5251,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="2"/>
     </row>
-    <row r="334" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -5233,7 +5265,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="2"/>
     </row>
-    <row r="335" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -5247,7 +5279,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
     </row>
-    <row r="336" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -5261,7 +5293,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
     </row>
-    <row r="337" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -5275,7 +5307,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
     </row>
-    <row r="338" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -5289,7 +5321,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
     </row>
-    <row r="339" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -5303,7 +5335,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="2"/>
     </row>
-    <row r="340" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -5317,7 +5349,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="2"/>
     </row>
-    <row r="341" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -5331,7 +5363,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="2"/>
     </row>
-    <row r="342" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -5345,7 +5377,7 @@
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
     </row>
-    <row r="343" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -5359,7 +5391,7 @@
       <c r="K343" s="2"/>
       <c r="L343" s="2"/>
     </row>
-    <row r="344" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -5373,7 +5405,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="2"/>
     </row>
-    <row r="345" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -5387,7 +5419,7 @@
       <c r="K345" s="2"/>
       <c r="L345" s="2"/>
     </row>
-    <row r="346" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -5401,7 +5433,7 @@
       <c r="K346" s="2"/>
       <c r="L346" s="2"/>
     </row>
-    <row r="347" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -5415,7 +5447,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="2"/>
     </row>
-    <row r="348" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -5429,7 +5461,7 @@
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
     </row>
-    <row r="349" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -5443,7 +5475,7 @@
       <c r="K349" s="2"/>
       <c r="L349" s="2"/>
     </row>
-    <row r="350" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -5457,7 +5489,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
     </row>
-    <row r="351" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -5471,7 +5503,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
     </row>
-    <row r="352" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -5485,7 +5517,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="2"/>
     </row>
-    <row r="353" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -5499,7 +5531,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="2"/>
     </row>
-    <row r="354" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -5513,7 +5545,7 @@
       <c r="K354" s="2"/>
       <c r="L354" s="2"/>
     </row>
-    <row r="355" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -5527,7 +5559,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="2"/>
     </row>
-    <row r="356" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -5541,7 +5573,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
     </row>
-    <row r="357" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -5555,7 +5587,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
     </row>
-    <row r="358" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -5569,7 +5601,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="2"/>
     </row>
-    <row r="359" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -5583,7 +5615,7 @@
       <c r="K359" s="2"/>
       <c r="L359" s="2"/>
     </row>
-    <row r="360" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -5597,7 +5629,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="2"/>
     </row>
-    <row r="361" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -5611,7 +5643,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
     </row>
-    <row r="362" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -5625,7 +5657,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
     </row>
-    <row r="363" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -5639,7 +5671,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
     </row>
-    <row r="364" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -5653,7 +5685,7 @@
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
     </row>
-    <row r="365" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -5667,7 +5699,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
     </row>
-    <row r="366" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -5681,7 +5713,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
     </row>
-    <row r="367" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -5695,7 +5727,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
     </row>
-    <row r="368" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -5709,7 +5741,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="2"/>
     </row>
-    <row r="369" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -5723,7 +5755,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="2"/>
     </row>
-    <row r="370" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -5737,7 +5769,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="2"/>
     </row>
-    <row r="371" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -5751,7 +5783,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="2"/>
     </row>
-    <row r="372" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -5765,7 +5797,7 @@
       <c r="K372" s="2"/>
       <c r="L372" s="2"/>
     </row>
-    <row r="373" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -5779,7 +5811,7 @@
       <c r="K373" s="2"/>
       <c r="L373" s="2"/>
     </row>
-    <row r="374" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -5793,7 +5825,7 @@
       <c r="K374" s="2"/>
       <c r="L374" s="2"/>
     </row>
-    <row r="375" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -5807,7 +5839,7 @@
       <c r="K375" s="2"/>
       <c r="L375" s="2"/>
     </row>
-    <row r="376" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -5821,7 +5853,7 @@
       <c r="K376" s="2"/>
       <c r="L376" s="2"/>
     </row>
-    <row r="377" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -5835,7 +5867,7 @@
       <c r="K377" s="2"/>
       <c r="L377" s="2"/>
     </row>
-    <row r="378" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -5849,7 +5881,7 @@
       <c r="K378" s="2"/>
       <c r="L378" s="2"/>
     </row>
-    <row r="379" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -5863,7 +5895,7 @@
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
     </row>
-    <row r="380" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -5877,7 +5909,7 @@
       <c r="K380" s="2"/>
       <c r="L380" s="2"/>
     </row>
-    <row r="381" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -5891,7 +5923,7 @@
       <c r="K381" s="2"/>
       <c r="L381" s="2"/>
     </row>
-    <row r="382" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -5905,7 +5937,7 @@
       <c r="K382" s="2"/>
       <c r="L382" s="2"/>
     </row>
-    <row r="383" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -5919,7 +5951,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="2"/>
     </row>
-    <row r="384" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -5933,7 +5965,7 @@
       <c r="K384" s="2"/>
       <c r="L384" s="2"/>
     </row>
-    <row r="385" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -5947,7 +5979,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="2"/>
     </row>
-    <row r="386" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -5961,7 +5993,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="2"/>
     </row>
-    <row r="387" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -5975,7 +6007,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
     </row>
-    <row r="388" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -5989,7 +6021,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="2"/>
     </row>
-    <row r="389" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -6003,7 +6035,7 @@
       <c r="K389" s="2"/>
       <c r="L389" s="2"/>
     </row>
-    <row r="390" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -6017,7 +6049,7 @@
       <c r="K390" s="2"/>
       <c r="L390" s="2"/>
     </row>
-    <row r="391" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -6031,7 +6063,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="2"/>
     </row>
-    <row r="392" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -6045,7 +6077,7 @@
       <c r="K392" s="2"/>
       <c r="L392" s="2"/>
     </row>
-    <row r="393" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -6059,7 +6091,7 @@
       <c r="K393" s="2"/>
       <c r="L393" s="2"/>
     </row>
-    <row r="394" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -6073,7 +6105,7 @@
       <c r="K394" s="2"/>
       <c r="L394" s="2"/>
     </row>
-    <row r="395" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -6087,7 +6119,7 @@
       <c r="K395" s="2"/>
       <c r="L395" s="2"/>
     </row>
-    <row r="396" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -6101,7 +6133,7 @@
       <c r="K396" s="2"/>
       <c r="L396" s="2"/>
     </row>
-    <row r="397" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -6115,7 +6147,7 @@
       <c r="K397" s="2"/>
       <c r="L397" s="2"/>
     </row>
-    <row r="398" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -6129,7 +6161,7 @@
       <c r="K398" s="2"/>
       <c r="L398" s="2"/>
     </row>
-    <row r="399" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -6143,7 +6175,7 @@
       <c r="K399" s="2"/>
       <c r="L399" s="2"/>
     </row>
-    <row r="400" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -6157,7 +6189,7 @@
       <c r="K400" s="2"/>
       <c r="L400" s="2"/>
     </row>
-    <row r="401" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -6171,7 +6203,7 @@
       <c r="K401" s="2"/>
       <c r="L401" s="2"/>
     </row>
-    <row r="402" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -6185,7 +6217,7 @@
       <c r="K402" s="2"/>
       <c r="L402" s="2"/>
     </row>
-    <row r="403" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -6199,7 +6231,7 @@
       <c r="K403" s="2"/>
       <c r="L403" s="2"/>
     </row>
-    <row r="404" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -6213,7 +6245,7 @@
       <c r="K404" s="2"/>
       <c r="L404" s="2"/>
     </row>
-    <row r="405" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -6227,7 +6259,7 @@
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
     </row>
-    <row r="406" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -6241,7 +6273,7 @@
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
     </row>
-    <row r="407" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -6255,7 +6287,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="2"/>
     </row>
-    <row r="408" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -6269,7 +6301,7 @@
       <c r="K408" s="2"/>
       <c r="L408" s="2"/>
     </row>
-    <row r="409" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -6283,7 +6315,7 @@
       <c r="K409" s="2"/>
       <c r="L409" s="2"/>
     </row>
-    <row r="410" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -6297,7 +6329,7 @@
       <c r="K410" s="2"/>
       <c r="L410" s="2"/>
     </row>
-    <row r="411" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -6311,7 +6343,7 @@
       <c r="K411" s="2"/>
       <c r="L411" s="2"/>
     </row>
-    <row r="412" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -6325,7 +6357,7 @@
       <c r="K412" s="2"/>
       <c r="L412" s="2"/>
     </row>
-    <row r="413" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -6339,7 +6371,7 @@
       <c r="K413" s="2"/>
       <c r="L413" s="2"/>
     </row>
-    <row r="414" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -6353,7 +6385,7 @@
       <c r="K414" s="2"/>
       <c r="L414" s="2"/>
     </row>
-    <row r="415" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -6367,7 +6399,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="2"/>
     </row>
-    <row r="416" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -6381,7 +6413,7 @@
       <c r="K416" s="2"/>
       <c r="L416" s="2"/>
     </row>
-    <row r="417" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -6395,7 +6427,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="2"/>
     </row>
-    <row r="418" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -6409,7 +6441,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="2"/>
     </row>
-    <row r="419" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -6423,7 +6455,7 @@
       <c r="K419" s="2"/>
       <c r="L419" s="2"/>
     </row>
-    <row r="420" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -6437,7 +6469,7 @@
       <c r="K420" s="2"/>
       <c r="L420" s="2"/>
     </row>
-    <row r="421" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -6451,7 +6483,7 @@
       <c r="K421" s="2"/>
       <c r="L421" s="2"/>
     </row>
-    <row r="422" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -6465,7 +6497,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="2"/>
     </row>
-    <row r="423" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -6479,7 +6511,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
     </row>
-    <row r="424" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -6493,7 +6525,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="2"/>
     </row>
-    <row r="425" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -6507,7 +6539,7 @@
       <c r="K425" s="2"/>
       <c r="L425" s="2"/>
     </row>
-    <row r="426" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -6521,7 +6553,7 @@
       <c r="K426" s="2"/>
       <c r="L426" s="2"/>
     </row>
-    <row r="427" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -6535,7 +6567,7 @@
       <c r="K427" s="2"/>
       <c r="L427" s="2"/>
     </row>
-    <row r="428" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -6549,7 +6581,7 @@
       <c r="K428" s="2"/>
       <c r="L428" s="2"/>
     </row>
-    <row r="429" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -6563,7 +6595,7 @@
       <c r="K429" s="2"/>
       <c r="L429" s="2"/>
     </row>
-    <row r="430" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -6577,7 +6609,7 @@
       <c r="K430" s="2"/>
       <c r="L430" s="2"/>
     </row>
-    <row r="431" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -6591,7 +6623,7 @@
       <c r="K431" s="2"/>
       <c r="L431" s="2"/>
     </row>
-    <row r="432" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -6605,7 +6637,7 @@
       <c r="K432" s="2"/>
       <c r="L432" s="2"/>
     </row>
-    <row r="433" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -6619,7 +6651,7 @@
       <c r="K433" s="2"/>
       <c r="L433" s="2"/>
     </row>
-    <row r="434" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -6633,7 +6665,7 @@
       <c r="K434" s="2"/>
       <c r="L434" s="2"/>
     </row>
-    <row r="435" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -6647,7 +6679,7 @@
       <c r="K435" s="2"/>
       <c r="L435" s="2"/>
     </row>
-    <row r="436" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -6661,7 +6693,7 @@
       <c r="K436" s="2"/>
       <c r="L436" s="2"/>
     </row>
-    <row r="437" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -6675,7 +6707,7 @@
       <c r="K437" s="2"/>
       <c r="L437" s="2"/>
     </row>
-    <row r="438" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -6689,7 +6721,7 @@
       <c r="K438" s="2"/>
       <c r="L438" s="2"/>
     </row>
-    <row r="439" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -6703,7 +6735,7 @@
       <c r="K439" s="2"/>
       <c r="L439" s="2"/>
     </row>
-    <row r="440" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -6717,7 +6749,7 @@
       <c r="K440" s="2"/>
       <c r="L440" s="2"/>
     </row>
-    <row r="441" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -6731,7 +6763,7 @@
       <c r="K441" s="2"/>
       <c r="L441" s="2"/>
     </row>
-    <row r="442" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -6745,7 +6777,7 @@
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
     </row>
-    <row r="443" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -6759,7 +6791,7 @@
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
     </row>
-    <row r="444" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -6773,7 +6805,7 @@
       <c r="K444" s="2"/>
       <c r="L444" s="2"/>
     </row>
-    <row r="445" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -6787,7 +6819,7 @@
       <c r="K445" s="2"/>
       <c r="L445" s="2"/>
     </row>
-    <row r="446" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -6801,7 +6833,7 @@
       <c r="K446" s="2"/>
       <c r="L446" s="2"/>
     </row>
-    <row r="447" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -6815,7 +6847,7 @@
       <c r="K447" s="2"/>
       <c r="L447" s="2"/>
     </row>
-    <row r="448" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -6829,7 +6861,7 @@
       <c r="K448" s="2"/>
       <c r="L448" s="2"/>
     </row>
-    <row r="449" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -6843,7 +6875,7 @@
       <c r="K449" s="2"/>
       <c r="L449" s="2"/>
     </row>
-    <row r="450" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -6857,7 +6889,7 @@
       <c r="K450" s="2"/>
       <c r="L450" s="2"/>
     </row>
-    <row r="451" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -6871,7 +6903,7 @@
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
     </row>
-    <row r="452" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -6885,7 +6917,7 @@
       <c r="K452" s="2"/>
       <c r="L452" s="2"/>
     </row>
-    <row r="453" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -6899,7 +6931,7 @@
       <c r="K453" s="2"/>
       <c r="L453" s="2"/>
     </row>
-    <row r="454" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -6913,7 +6945,7 @@
       <c r="K454" s="2"/>
       <c r="L454" s="2"/>
     </row>
-    <row r="455" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -6927,7 +6959,7 @@
       <c r="K455" s="2"/>
       <c r="L455" s="2"/>
     </row>
-    <row r="456" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -6941,7 +6973,7 @@
       <c r="K456" s="2"/>
       <c r="L456" s="2"/>
     </row>
-    <row r="457" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -6955,7 +6987,7 @@
       <c r="K457" s="2"/>
       <c r="L457" s="2"/>
     </row>
-    <row r="458" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -6969,7 +7001,7 @@
       <c r="K458" s="2"/>
       <c r="L458" s="2"/>
     </row>
-    <row r="459" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -6983,7 +7015,7 @@
       <c r="K459" s="2"/>
       <c r="L459" s="2"/>
     </row>
-    <row r="460" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -6997,7 +7029,7 @@
       <c r="K460" s="2"/>
       <c r="L460" s="2"/>
     </row>
-    <row r="461" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -7011,7 +7043,7 @@
       <c r="K461" s="2"/>
       <c r="L461" s="2"/>
     </row>
-    <row r="462" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -7025,7 +7057,7 @@
       <c r="K462" s="2"/>
       <c r="L462" s="2"/>
     </row>
-    <row r="463" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -7039,7 +7071,7 @@
       <c r="K463" s="2"/>
       <c r="L463" s="2"/>
     </row>
-    <row r="464" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -7053,7 +7085,7 @@
       <c r="K464" s="2"/>
       <c r="L464" s="2"/>
     </row>
-    <row r="465" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -7067,7 +7099,7 @@
       <c r="K465" s="2"/>
       <c r="L465" s="2"/>
     </row>
-    <row r="466" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -7081,7 +7113,7 @@
       <c r="K466" s="2"/>
       <c r="L466" s="2"/>
     </row>
-    <row r="467" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -7095,7 +7127,7 @@
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
     </row>
-    <row r="468" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -7109,7 +7141,7 @@
       <c r="K468" s="2"/>
       <c r="L468" s="2"/>
     </row>
-    <row r="469" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -7123,7 +7155,7 @@
       <c r="K469" s="2"/>
       <c r="L469" s="2"/>
     </row>
-    <row r="470" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -7137,7 +7169,7 @@
       <c r="K470" s="2"/>
       <c r="L470" s="2"/>
     </row>
-    <row r="471" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -7151,7 +7183,7 @@
       <c r="K471" s="2"/>
       <c r="L471" s="2"/>
     </row>
-    <row r="472" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -7165,7 +7197,7 @@
       <c r="K472" s="2"/>
       <c r="L472" s="2"/>
     </row>
-    <row r="473" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -7179,7 +7211,7 @@
       <c r="K473" s="2"/>
       <c r="L473" s="2"/>
     </row>
-    <row r="474" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -7193,7 +7225,7 @@
       <c r="K474" s="2"/>
       <c r="L474" s="2"/>
     </row>
-    <row r="475" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -7207,7 +7239,7 @@
       <c r="K475" s="2"/>
       <c r="L475" s="2"/>
     </row>
-    <row r="476" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -7221,7 +7253,7 @@
       <c r="K476" s="2"/>
       <c r="L476" s="2"/>
     </row>
-    <row r="477" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -7235,7 +7267,7 @@
       <c r="K477" s="2"/>
       <c r="L477" s="2"/>
     </row>
-    <row r="478" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -7249,7 +7281,7 @@
       <c r="K478" s="2"/>
       <c r="L478" s="2"/>
     </row>
-    <row r="479" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -7263,7 +7295,7 @@
       <c r="K479" s="2"/>
       <c r="L479" s="2"/>
     </row>
-    <row r="480" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -7277,7 +7309,7 @@
       <c r="K480" s="2"/>
       <c r="L480" s="2"/>
     </row>
-    <row r="481" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -7291,7 +7323,7 @@
       <c r="K481" s="2"/>
       <c r="L481" s="2"/>
     </row>
-    <row r="482" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -7305,7 +7337,7 @@
       <c r="K482" s="2"/>
       <c r="L482" s="2"/>
     </row>
-    <row r="483" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -7319,7 +7351,7 @@
       <c r="K483" s="2"/>
       <c r="L483" s="2"/>
     </row>
-    <row r="484" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -7333,7 +7365,7 @@
       <c r="K484" s="2"/>
       <c r="L484" s="2"/>
     </row>
-    <row r="485" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -7347,7 +7379,7 @@
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
     </row>
-    <row r="486" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -7361,7 +7393,7 @@
       <c r="K486" s="2"/>
       <c r="L486" s="2"/>
     </row>
-    <row r="487" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -7375,7 +7407,7 @@
       <c r="K487" s="2"/>
       <c r="L487" s="2"/>
     </row>
-    <row r="488" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -7389,7 +7421,7 @@
       <c r="K488" s="2"/>
       <c r="L488" s="2"/>
     </row>
-    <row r="489" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -7403,7 +7435,7 @@
       <c r="K489" s="2"/>
       <c r="L489" s="2"/>
     </row>
-    <row r="490" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -7417,7 +7449,7 @@
       <c r="K490" s="2"/>
       <c r="L490" s="2"/>
     </row>
-    <row r="491" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -7431,7 +7463,7 @@
       <c r="K491" s="2"/>
       <c r="L491" s="2"/>
     </row>
-    <row r="492" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -7445,7 +7477,7 @@
       <c r="K492" s="2"/>
       <c r="L492" s="2"/>
     </row>
-    <row r="493" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -7459,7 +7491,7 @@
       <c r="K493" s="2"/>
       <c r="L493" s="2"/>
     </row>
-    <row r="494" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -7473,7 +7505,7 @@
       <c r="K494" s="2"/>
       <c r="L494" s="2"/>
     </row>
-    <row r="495" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -7487,7 +7519,7 @@
       <c r="K495" s="2"/>
       <c r="L495" s="2"/>
     </row>
-    <row r="496" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -7501,7 +7533,7 @@
       <c r="K496" s="2"/>
       <c r="L496" s="2"/>
     </row>
-    <row r="497" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -7515,7 +7547,7 @@
       <c r="K497" s="2"/>
       <c r="L497" s="2"/>
     </row>
-    <row r="498" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -7529,7 +7561,7 @@
       <c r="K498" s="2"/>
       <c r="L498" s="2"/>
     </row>
-    <row r="499" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -7543,7 +7575,7 @@
       <c r="K499" s="2"/>
       <c r="L499" s="2"/>
     </row>
-    <row r="500" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -7557,7 +7589,7 @@
       <c r="K500" s="2"/>
       <c r="L500" s="2"/>
     </row>
-    <row r="501" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -7571,7 +7603,7 @@
       <c r="K501" s="2"/>
       <c r="L501" s="2"/>
     </row>
-    <row r="502" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -7585,7 +7617,7 @@
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
     </row>
-    <row r="503" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -7599,7 +7631,7 @@
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
-    <row r="504" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -7613,7 +7645,7 @@
       <c r="K504" s="2"/>
       <c r="L504" s="2"/>
     </row>
-    <row r="505" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -7627,7 +7659,7 @@
       <c r="K505" s="2"/>
       <c r="L505" s="2"/>
     </row>
-    <row r="506" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -7641,7 +7673,7 @@
       <c r="K506" s="2"/>
       <c r="L506" s="2"/>
     </row>
-    <row r="507" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -7655,7 +7687,7 @@
       <c r="K507" s="2"/>
       <c r="L507" s="2"/>
     </row>
-    <row r="508" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -7669,7 +7701,7 @@
       <c r="K508" s="2"/>
       <c r="L508" s="2"/>
     </row>
-    <row r="509" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -7683,7 +7715,7 @@
       <c r="K509" s="2"/>
       <c r="L509" s="2"/>
     </row>
-    <row r="510" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -7697,7 +7729,7 @@
       <c r="K510" s="2"/>
       <c r="L510" s="2"/>
     </row>
-    <row r="511" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -7711,7 +7743,7 @@
       <c r="K511" s="2"/>
       <c r="L511" s="2"/>
     </row>
-    <row r="512" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -7725,7 +7757,7 @@
       <c r="K512" s="2"/>
       <c r="L512" s="2"/>
     </row>
-    <row r="513" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -7739,7 +7771,7 @@
       <c r="K513" s="2"/>
       <c r="L513" s="2"/>
     </row>
-    <row r="514" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -7753,7 +7785,7 @@
       <c r="K514" s="2"/>
       <c r="L514" s="2"/>
     </row>
-    <row r="515" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -7767,7 +7799,7 @@
       <c r="K515" s="2"/>
       <c r="L515" s="2"/>
     </row>
-    <row r="516" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -7781,7 +7813,7 @@
       <c r="K516" s="2"/>
       <c r="L516" s="2"/>
     </row>
-    <row r="517" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -7795,7 +7827,7 @@
       <c r="K517" s="2"/>
       <c r="L517" s="2"/>
     </row>
-    <row r="518" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -7809,7 +7841,7 @@
       <c r="K518" s="2"/>
       <c r="L518" s="2"/>
     </row>
-    <row r="519" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -7823,7 +7855,7 @@
       <c r="K519" s="2"/>
       <c r="L519" s="2"/>
     </row>
-    <row r="520" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -7837,7 +7869,7 @@
       <c r="K520" s="2"/>
       <c r="L520" s="2"/>
     </row>
-    <row r="521" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -7851,7 +7883,7 @@
       <c r="K521" s="2"/>
       <c r="L521" s="2"/>
     </row>
-    <row r="522" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -7865,7 +7897,7 @@
       <c r="K522" s="2"/>
       <c r="L522" s="2"/>
     </row>
-    <row r="523" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -7879,7 +7911,7 @@
       <c r="K523" s="2"/>
       <c r="L523" s="2"/>
     </row>
-    <row r="524" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -7893,7 +7925,7 @@
       <c r="K524" s="2"/>
       <c r="L524" s="2"/>
     </row>
-    <row r="525" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -7907,7 +7939,7 @@
       <c r="K525" s="2"/>
       <c r="L525" s="2"/>
     </row>
-    <row r="526" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -7921,7 +7953,7 @@
       <c r="K526" s="2"/>
       <c r="L526" s="2"/>
     </row>
-    <row r="527" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -7935,7 +7967,7 @@
       <c r="K527" s="2"/>
       <c r="L527" s="2"/>
     </row>
-    <row r="528" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -7949,7 +7981,7 @@
       <c r="K528" s="2"/>
       <c r="L528" s="2"/>
     </row>
-    <row r="529" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -7963,7 +7995,7 @@
       <c r="K529" s="2"/>
       <c r="L529" s="2"/>
     </row>
-    <row r="530" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -7977,7 +8009,7 @@
       <c r="K530" s="2"/>
       <c r="L530" s="2"/>
     </row>
-    <row r="531" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -7991,7 +8023,7 @@
       <c r="K531" s="2"/>
       <c r="L531" s="2"/>
     </row>
-    <row r="532" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -8005,7 +8037,7 @@
       <c r="K532" s="2"/>
       <c r="L532" s="2"/>
     </row>
-    <row r="533" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -8019,7 +8051,7 @@
       <c r="K533" s="2"/>
       <c r="L533" s="2"/>
     </row>
-    <row r="534" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -8033,7 +8065,7 @@
       <c r="K534" s="2"/>
       <c r="L534" s="2"/>
     </row>
-    <row r="535" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -8047,7 +8079,7 @@
       <c r="K535" s="2"/>
       <c r="L535" s="2"/>
     </row>
-    <row r="536" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -8061,7 +8093,7 @@
       <c r="K536" s="2"/>
       <c r="L536" s="2"/>
     </row>
-    <row r="537" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -8075,7 +8107,7 @@
       <c r="K537" s="2"/>
       <c r="L537" s="2"/>
     </row>
-    <row r="538" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -8089,7 +8121,7 @@
       <c r="K538" s="2"/>
       <c r="L538" s="2"/>
     </row>
-    <row r="539" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -8103,7 +8135,7 @@
       <c r="K539" s="2"/>
       <c r="L539" s="2"/>
     </row>
-    <row r="540" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -8117,7 +8149,7 @@
       <c r="K540" s="2"/>
       <c r="L540" s="2"/>
     </row>
-    <row r="541" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -8131,7 +8163,7 @@
       <c r="K541" s="2"/>
       <c r="L541" s="2"/>
     </row>
-    <row r="542" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -8145,7 +8177,7 @@
       <c r="K542" s="2"/>
       <c r="L542" s="2"/>
     </row>
-    <row r="543" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -8159,7 +8191,7 @@
       <c r="K543" s="2"/>
       <c r="L543" s="2"/>
     </row>
-    <row r="544" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -8173,7 +8205,7 @@
       <c r="K544" s="2"/>
       <c r="L544" s="2"/>
     </row>
-    <row r="545" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -8187,7 +8219,7 @@
       <c r="K545" s="2"/>
       <c r="L545" s="2"/>
     </row>
-    <row r="546" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -8201,7 +8233,7 @@
       <c r="K546" s="2"/>
       <c r="L546" s="2"/>
     </row>
-    <row r="547" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -8215,7 +8247,7 @@
       <c r="K547" s="2"/>
       <c r="L547" s="2"/>
     </row>
-    <row r="548" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -8229,7 +8261,7 @@
       <c r="K548" s="2"/>
       <c r="L548" s="2"/>
     </row>
-    <row r="549" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -8243,7 +8275,7 @@
       <c r="K549" s="2"/>
       <c r="L549" s="2"/>
     </row>
-    <row r="550" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -8257,7 +8289,7 @@
       <c r="K550" s="2"/>
       <c r="L550" s="2"/>
     </row>
-    <row r="551" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -8271,7 +8303,7 @@
       <c r="K551" s="2"/>
       <c r="L551" s="2"/>
     </row>
-    <row r="552" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -8285,7 +8317,7 @@
       <c r="K552" s="2"/>
       <c r="L552" s="2"/>
     </row>
-    <row r="553" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -8299,7 +8331,7 @@
       <c r="K553" s="2"/>
       <c r="L553" s="2"/>
     </row>
-    <row r="554" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -8313,7 +8345,7 @@
       <c r="K554" s="2"/>
       <c r="L554" s="2"/>
     </row>
-    <row r="555" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -8327,7 +8359,7 @@
       <c r="K555" s="2"/>
       <c r="L555" s="2"/>
     </row>
-    <row r="556" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -8341,7 +8373,7 @@
       <c r="K556" s="2"/>
       <c r="L556" s="2"/>
     </row>
-    <row r="557" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -8355,7 +8387,7 @@
       <c r="K557" s="2"/>
       <c r="L557" s="2"/>
     </row>
-    <row r="558" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -8369,7 +8401,7 @@
       <c r="K558" s="2"/>
       <c r="L558" s="2"/>
     </row>
-    <row r="559" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -8383,7 +8415,7 @@
       <c r="K559" s="2"/>
       <c r="L559" s="2"/>
     </row>
-    <row r="560" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -8397,7 +8429,7 @@
       <c r="K560" s="2"/>
       <c r="L560" s="2"/>
     </row>
-    <row r="561" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -8411,7 +8443,7 @@
       <c r="K561" s="2"/>
       <c r="L561" s="2"/>
     </row>
-    <row r="562" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -8425,7 +8457,7 @@
       <c r="K562" s="2"/>
       <c r="L562" s="2"/>
     </row>
-    <row r="563" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -8439,7 +8471,7 @@
       <c r="K563" s="2"/>
       <c r="L563" s="2"/>
     </row>
-    <row r="564" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -8453,7 +8485,7 @@
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
     </row>
-    <row r="565" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -8467,7 +8499,7 @@
       <c r="K565" s="2"/>
       <c r="L565" s="2"/>
     </row>
-    <row r="566" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -8481,7 +8513,7 @@
       <c r="K566" s="2"/>
       <c r="L566" s="2"/>
     </row>
-    <row r="567" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -8495,7 +8527,7 @@
       <c r="K567" s="2"/>
       <c r="L567" s="2"/>
     </row>
-    <row r="568" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -8509,7 +8541,7 @@
       <c r="K568" s="2"/>
       <c r="L568" s="2"/>
     </row>
-    <row r="569" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -8523,7 +8555,7 @@
       <c r="K569" s="2"/>
       <c r="L569" s="2"/>
     </row>
-    <row r="570" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -8537,7 +8569,7 @@
       <c r="K570" s="2"/>
       <c r="L570" s="2"/>
     </row>
-    <row r="571" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -8551,7 +8583,7 @@
       <c r="K571" s="2"/>
       <c r="L571" s="2"/>
     </row>
-    <row r="572" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -8565,7 +8597,7 @@
       <c r="K572" s="2"/>
       <c r="L572" s="2"/>
     </row>
-    <row r="573" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -8579,7 +8611,7 @@
       <c r="K573" s="2"/>
       <c r="L573" s="2"/>
     </row>
-    <row r="574" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -8593,7 +8625,7 @@
       <c r="K574" s="2"/>
       <c r="L574" s="2"/>
     </row>
-    <row r="575" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -8607,7 +8639,7 @@
       <c r="K575" s="2"/>
       <c r="L575" s="2"/>
     </row>
-    <row r="576" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -8621,7 +8653,7 @@
       <c r="K576" s="2"/>
       <c r="L576" s="2"/>
     </row>
-    <row r="577" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -8635,7 +8667,7 @@
       <c r="K577" s="2"/>
       <c r="L577" s="2"/>
     </row>
-    <row r="578" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -8649,7 +8681,7 @@
       <c r="K578" s="2"/>
       <c r="L578" s="2"/>
     </row>
-    <row r="579" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -8663,7 +8695,7 @@
       <c r="K579" s="2"/>
       <c r="L579" s="2"/>
     </row>
-    <row r="580" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -8677,7 +8709,7 @@
       <c r="K580" s="2"/>
       <c r="L580" s="2"/>
     </row>
-    <row r="581" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -8691,7 +8723,7 @@
       <c r="K581" s="2"/>
       <c r="L581" s="2"/>
     </row>
-    <row r="582" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -8705,7 +8737,7 @@
       <c r="K582" s="2"/>
       <c r="L582" s="2"/>
     </row>
-    <row r="583" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -8719,7 +8751,7 @@
       <c r="K583" s="2"/>
       <c r="L583" s="2"/>
     </row>
-    <row r="584" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -8733,7 +8765,7 @@
       <c r="K584" s="2"/>
       <c r="L584" s="2"/>
     </row>
-    <row r="585" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -8747,7 +8779,7 @@
       <c r="K585" s="2"/>
       <c r="L585" s="2"/>
     </row>
-    <row r="586" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -8761,7 +8793,7 @@
       <c r="K586" s="2"/>
       <c r="L586" s="2"/>
     </row>
-    <row r="587" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -8775,7 +8807,7 @@
       <c r="K587" s="2"/>
       <c r="L587" s="2"/>
     </row>
-    <row r="588" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -8789,7 +8821,7 @@
       <c r="K588" s="2"/>
       <c r="L588" s="2"/>
     </row>
-    <row r="589" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -8803,7 +8835,7 @@
       <c r="K589" s="2"/>
       <c r="L589" s="2"/>
     </row>
-    <row r="590" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -8817,7 +8849,7 @@
       <c r="K590" s="2"/>
       <c r="L590" s="2"/>
     </row>
-    <row r="591" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -8831,7 +8863,7 @@
       <c r="K591" s="2"/>
       <c r="L591" s="2"/>
     </row>
-    <row r="592" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -8845,7 +8877,7 @@
       <c r="K592" s="2"/>
       <c r="L592" s="2"/>
     </row>
-    <row r="593" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -8859,7 +8891,7 @@
       <c r="K593" s="2"/>
       <c r="L593" s="2"/>
     </row>
-    <row r="594" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -8873,7 +8905,7 @@
       <c r="K594" s="2"/>
       <c r="L594" s="2"/>
     </row>
-    <row r="595" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -8887,7 +8919,7 @@
       <c r="K595" s="2"/>
       <c r="L595" s="2"/>
     </row>
-    <row r="596" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -8901,7 +8933,7 @@
       <c r="K596" s="2"/>
       <c r="L596" s="2"/>
     </row>
-    <row r="597" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -8915,7 +8947,7 @@
       <c r="K597" s="2"/>
       <c r="L597" s="2"/>
     </row>
-    <row r="598" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -8929,7 +8961,7 @@
       <c r="K598" s="2"/>
       <c r="L598" s="2"/>
     </row>
-    <row r="599" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -8943,7 +8975,7 @@
       <c r="K599" s="2"/>
       <c r="L599" s="2"/>
     </row>
-    <row r="600" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -8957,7 +8989,7 @@
       <c r="K600" s="2"/>
       <c r="L600" s="2"/>
     </row>
-    <row r="601" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -8971,7 +9003,7 @@
       <c r="K601" s="2"/>
       <c r="L601" s="2"/>
     </row>
-    <row r="602" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -8985,7 +9017,7 @@
       <c r="K602" s="2"/>
       <c r="L602" s="2"/>
     </row>
-    <row r="603" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -8999,7 +9031,7 @@
       <c r="K603" s="2"/>
       <c r="L603" s="2"/>
     </row>
-    <row r="604" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -9013,7 +9045,7 @@
       <c r="K604" s="2"/>
       <c r="L604" s="2"/>
     </row>
-    <row r="605" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -9027,7 +9059,7 @@
       <c r="K605" s="2"/>
       <c r="L605" s="2"/>
     </row>
-    <row r="606" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -9041,7 +9073,7 @@
       <c r="K606" s="2"/>
       <c r="L606" s="2"/>
     </row>
-    <row r="607" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -9055,7 +9087,7 @@
       <c r="K607" s="2"/>
       <c r="L607" s="2"/>
     </row>
-    <row r="608" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -9069,7 +9101,7 @@
       <c r="K608" s="2"/>
       <c r="L608" s="2"/>
     </row>
-    <row r="609" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -9083,7 +9115,7 @@
       <c r="K609" s="2"/>
       <c r="L609" s="2"/>
     </row>
-    <row r="610" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -9097,7 +9129,7 @@
       <c r="K610" s="2"/>
       <c r="L610" s="2"/>
     </row>
-    <row r="611" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -9111,7 +9143,7 @@
       <c r="K611" s="2"/>
       <c r="L611" s="2"/>
     </row>
-    <row r="612" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -9125,7 +9157,7 @@
       <c r="K612" s="2"/>
       <c r="L612" s="2"/>
     </row>
-    <row r="613" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -9139,7 +9171,7 @@
       <c r="K613" s="2"/>
       <c r="L613" s="2"/>
     </row>
-    <row r="614" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -9153,7 +9185,7 @@
       <c r="K614" s="2"/>
       <c r="L614" s="2"/>
     </row>
-    <row r="615" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -9167,7 +9199,7 @@
       <c r="K615" s="2"/>
       <c r="L615" s="2"/>
     </row>
-    <row r="616" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -9181,7 +9213,7 @@
       <c r="K616" s="2"/>
       <c r="L616" s="2"/>
     </row>
-    <row r="617" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -9195,7 +9227,7 @@
       <c r="K617" s="2"/>
       <c r="L617" s="2"/>
     </row>
-    <row r="618" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -9209,7 +9241,7 @@
       <c r="K618" s="2"/>
       <c r="L618" s="2"/>
     </row>
-    <row r="619" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -9223,7 +9255,7 @@
       <c r="K619" s="2"/>
       <c r="L619" s="2"/>
     </row>
-    <row r="620" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -9237,7 +9269,7 @@
       <c r="K620" s="2"/>
       <c r="L620" s="2"/>
     </row>
-    <row r="621" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -9251,7 +9283,7 @@
       <c r="K621" s="2"/>
       <c r="L621" s="2"/>
     </row>
-    <row r="622" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -9265,7 +9297,7 @@
       <c r="K622" s="2"/>
       <c r="L622" s="2"/>
     </row>
-    <row r="623" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -9279,7 +9311,7 @@
       <c r="K623" s="2"/>
       <c r="L623" s="2"/>
     </row>
-    <row r="624" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -9293,7 +9325,7 @@
       <c r="K624" s="2"/>
       <c r="L624" s="2"/>
     </row>
-    <row r="625" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -9307,7 +9339,7 @@
       <c r="K625" s="2"/>
       <c r="L625" s="2"/>
     </row>
-    <row r="626" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -9321,7 +9353,7 @@
       <c r="K626" s="2"/>
       <c r="L626" s="2"/>
     </row>
-    <row r="627" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -9335,7 +9367,7 @@
       <c r="K627" s="2"/>
       <c r="L627" s="2"/>
     </row>
-    <row r="628" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -9349,7 +9381,7 @@
       <c r="K628" s="2"/>
       <c r="L628" s="2"/>
     </row>
-    <row r="629" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -9363,7 +9395,7 @@
       <c r="K629" s="2"/>
       <c r="L629" s="2"/>
     </row>
-    <row r="630" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -9377,7 +9409,7 @@
       <c r="K630" s="2"/>
       <c r="L630" s="2"/>
     </row>
-    <row r="631" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -9391,7 +9423,7 @@
       <c r="K631" s="2"/>
       <c r="L631" s="2"/>
     </row>
-    <row r="632" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -9405,7 +9437,7 @@
       <c r="K632" s="2"/>
       <c r="L632" s="2"/>
     </row>
-    <row r="633" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -9419,7 +9451,7 @@
       <c r="K633" s="2"/>
       <c r="L633" s="2"/>
     </row>
-    <row r="634" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -9433,7 +9465,7 @@
       <c r="K634" s="2"/>
       <c r="L634" s="2"/>
     </row>
-    <row r="635" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -9447,7 +9479,7 @@
       <c r="K635" s="2"/>
       <c r="L635" s="2"/>
     </row>
-    <row r="636" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -9461,7 +9493,7 @@
       <c r="K636" s="2"/>
       <c r="L636" s="2"/>
     </row>
-    <row r="637" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -9475,7 +9507,7 @@
       <c r="K637" s="2"/>
       <c r="L637" s="2"/>
     </row>
-    <row r="638" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -9489,7 +9521,7 @@
       <c r="K638" s="2"/>
       <c r="L638" s="2"/>
     </row>
-    <row r="639" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -9503,7 +9535,7 @@
       <c r="K639" s="2"/>
       <c r="L639" s="2"/>
     </row>
-    <row r="640" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -9517,7 +9549,7 @@
       <c r="K640" s="2"/>
       <c r="L640" s="2"/>
     </row>
-    <row r="641" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -9531,7 +9563,7 @@
       <c r="K641" s="2"/>
       <c r="L641" s="2"/>
     </row>
-    <row r="642" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -9545,7 +9577,7 @@
       <c r="K642" s="2"/>
       <c r="L642" s="2"/>
     </row>
-    <row r="643" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -9559,7 +9591,7 @@
       <c r="K643" s="2"/>
       <c r="L643" s="2"/>
     </row>
-    <row r="644" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -9573,7 +9605,7 @@
       <c r="K644" s="2"/>
       <c r="L644" s="2"/>
     </row>
-    <row r="645" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -9587,7 +9619,7 @@
       <c r="K645" s="2"/>
       <c r="L645" s="2"/>
     </row>
-    <row r="646" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -9601,7 +9633,7 @@
       <c r="K646" s="2"/>
       <c r="L646" s="2"/>
     </row>
-    <row r="647" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -9615,7 +9647,7 @@
       <c r="K647" s="2"/>
       <c r="L647" s="2"/>
     </row>
-    <row r="648" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -9629,7 +9661,7 @@
       <c r="K648" s="2"/>
       <c r="L648" s="2"/>
     </row>
-    <row r="649" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -9643,7 +9675,7 @@
       <c r="K649" s="2"/>
       <c r="L649" s="2"/>
     </row>
-    <row r="650" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -9657,7 +9689,7 @@
       <c r="K650" s="2"/>
       <c r="L650" s="2"/>
     </row>
-    <row r="651" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -9685,26 +9717,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ffeec27-f743-4238-9a75-26d06b1dc244">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b1372d0e-cfd1-448a-8334-bdb60fa40727" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100323BBB44CBC34B469A1DE5293C6D0B60" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="276948e60e12b80fbcc8175325eeec0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ffeec27-f743-4238-9a75-26d06b1dc244" xmlns:ns3="b1372d0e-cfd1-448a-8334-bdb60fa40727" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f8a3288ef1069d34167e98cc5762b0e" ns2:_="" ns3:_="">
     <xsd:import namespace="1ffeec27-f743-4238-9a75-26d06b1dc244"/>
@@ -9939,26 +9951,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6CEBCB2-FF40-4D9B-BFCF-7AA5436CE48A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1ffeec27-f743-4238-9a75-26d06b1dc244"/>
-    <ds:schemaRef ds:uri="b1372d0e-cfd1-448a-8334-bdb60fa40727"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2696125F-A2E3-4A84-905B-AE58970A1170}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ffeec27-f743-4238-9a75-26d06b1dc244">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b1372d0e-cfd1-448a-8334-bdb60fa40727" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F58B1DC-7389-44C7-B847-A27685736F04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9975,4 +9988,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2696125F-A2E3-4A84-905B-AE58970A1170}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6CEBCB2-FF40-4D9B-BFCF-7AA5436CE48A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ffeec27-f743-4238-9a75-26d06b1dc244"/>
+    <ds:schemaRef ds:uri="b1372d0e-cfd1-448a-8334-bdb60fa40727"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/data/test_database.xlsx
+++ b/tests/data/test_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lukas/Documents/Programming/Git/STVadmin_processing/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E89F34E-3B9C-1547-A17A-CBE43EAF15DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EEBE2A-E584-3C49-8617-AF51FA1F3703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mitglieder" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>MITGLIEDERNR</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>Kitu</t>
+  </si>
+  <si>
+    <t>vorname4</t>
+  </si>
+  <si>
+    <t>nachname4</t>
+  </si>
+  <si>
+    <t>strasse4</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
 </sst>
 </file>
@@ -494,7 +506,7 @@
   <dimension ref="A1:L651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -647,14 +659,30 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3">
+        <v>20183</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -9717,6 +9745,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100323BBB44CBC34B469A1DE5293C6D0B60" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="276948e60e12b80fbcc8175325eeec0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ffeec27-f743-4238-9a75-26d06b1dc244" xmlns:ns3="b1372d0e-cfd1-448a-8334-bdb60fa40727" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f8a3288ef1069d34167e98cc5762b0e" ns2:_="" ns3:_="">
     <xsd:import namespace="1ffeec27-f743-4238-9a75-26d06b1dc244"/>
@@ -9951,15 +9988,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9972,6 +10000,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2696125F-A2E3-4A84-905B-AE58970A1170}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F58B1DC-7389-44C7-B847-A27685736F04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9990,14 +10026,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2696125F-A2E3-4A84-905B-AE58970A1170}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6CEBCB2-FF40-4D9B-BFCF-7AA5436CE48A}">
   <ds:schemaRefs>

--- a/tests/data/test_database.xlsx
+++ b/tests/data/test_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lukas/Documents/Programming/Git/STVadmin_processing/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EEBE2A-E584-3C49-8617-AF51FA1F3703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CC87F7-8CE4-E544-86D9-88EB0FB71D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>Aktive Turner</t>
   </si>
   <si>
-    <t>Kitu</t>
-  </si>
-  <si>
     <t>vorname4</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>Kitu (Kinder)</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:L651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -613,7 +613,7 @@
         <v>36558</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>19</v>
@@ -9745,12 +9745,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ffeec27-f743-4238-9a75-26d06b1dc244">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b1372d0e-cfd1-448a-8334-bdb60fa40727" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9989,20 +9991,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ffeec27-f743-4238-9a75-26d06b1dc244">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b1372d0e-cfd1-448a-8334-bdb60fa40727" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2696125F-A2E3-4A84-905B-AE58970A1170}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6CEBCB2-FF40-4D9B-BFCF-7AA5436CE48A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ffeec27-f743-4238-9a75-26d06b1dc244"/>
+    <ds:schemaRef ds:uri="b1372d0e-cfd1-448a-8334-bdb60fa40727"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10027,12 +10030,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6CEBCB2-FF40-4D9B-BFCF-7AA5436CE48A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2696125F-A2E3-4A84-905B-AE58970A1170}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1ffeec27-f743-4238-9a75-26d06b1dc244"/>
-    <ds:schemaRef ds:uri="b1372d0e-cfd1-448a-8334-bdb60fa40727"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>